--- a/dataset/loan_player_data/DataXLSX_Bundesliga.xlsx
+++ b/dataset/loan_player_data/DataXLSX_Bundesliga.xlsx
@@ -615,12 +615,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>77'</t>
+          <t>78'</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>72'</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3689,12 +3689,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>75'</t>
+          <t>47'</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -8141,12 +8141,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>291</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>207</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>89'</t>
+          <t>90'</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>68'</t>
+          <t>73'</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>56'</t>
+          <t>63'</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>86'</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>203</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -14834,7 +14834,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>88'</t>
+          <t>89'</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -14978,12 +14978,12 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>179</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -15031,12 +15031,12 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -15152,7 +15152,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>87'</t>
+          <t>90'</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>64'</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -15755,7 +15755,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>SV Werder Bremen</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -15773,32 +15773,32 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>177</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>86'</t>
+          <t>87'</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>9.05</t>
         </is>
       </c>
     </row>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>SV Werder Bremen</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -15821,37 +15821,37 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>225</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>159</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>88'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>10.45</t>
         </is>
       </c>
     </row>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>35.70</t>
+          <t>36.70</t>
         </is>
       </c>
     </row>
@@ -16038,12 +16038,12 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -16265,7 +16265,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>85'</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>86'</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>8.55</t>
         </is>
       </c>
     </row>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
